--- a/RawDataQuestionnaires.xlsx
+++ b/RawDataQuestionnaires.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Documents\Uni\WiSe22_23\InformationsverhaltenVerstehen\Abgaben\SkippingBehaviour\Studien_Durchgeführt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6F2A699-02D4-4FDE-B9CF-9E5A2B1A406B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{954E1489-ADD9-40DE-AE66-87C1001B2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6506A550-EB3F-49D8-AEC5-3371002D41E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6506A550-EB3F-49D8-AEC5-3371002D41E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Study Questionnaire" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Pre-Study Questionnaire'!$A$1:$G$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -998,74 +999,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1076,118 +1010,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="3" xr16:uid="{40F62745-172F-4E4E-ABA7-A19800C4F267}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="8">
-    <queryTableFields count="7">
-      <queryTableField id="1" name="Zeitstempel" tableColumnId="1"/>
-      <queryTableField id="2" name="Participant Number" tableColumnId="2"/>
-      <queryTableField id="3" name="Melatonin as a treatment for Jet Lag." tableColumnId="3"/>
-      <queryTableField id="4" name="Melatonin can help with Jet Lag." tableColumnId="4"/>
-      <queryTableField id="5" name="How often do you search for information online?" tableColumnId="5"/>
-      <queryTableField id="6" name="How would you rate your web search expertise?" tableColumnId="6"/>
-      <queryTableField id="7" name="How good are you at evaluating credibility of information online?" tableColumnId="7"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{FBCA70E7-CD09-4ED2-B209-4C7AF85ED76F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="17">
-    <queryTableFields count="16">
-      <queryTableField id="1" name="Zeitstempel" tableColumnId="1"/>
-      <queryTableField id="2" name="Participant Number" tableColumnId="2"/>
-      <queryTableField id="3" name="How credible was search result 1?" tableColumnId="3"/>
-      <queryTableField id="4" name="Please explain your answer:" tableColumnId="4"/>
-      <queryTableField id="5" name="How credible was search result 2?" tableColumnId="5"/>
-      <queryTableField id="6" name="Please explain your answer:_1" tableColumnId="6"/>
-      <queryTableField id="7" name="How credible was search result 3?" tableColumnId="7"/>
-      <queryTableField id="8" name="Please explain your answer:_2" tableColumnId="8"/>
-      <queryTableField id="9" name="If you skipped (not clicked on) search result 1, why?" tableColumnId="9"/>
-      <queryTableField id="10" name="If you skipped (not clicked on) search result 2, why?" tableColumnId="10"/>
-      <queryTableField id="11" name="If you skipped (not clicked on) search result 3, why?" tableColumnId="11"/>
-      <queryTableField id="12" name="Did you skip search results because they were placed further down the search result page?" tableColumnId="12"/>
-      <queryTableField id="13" name="Did you skip search results because of their source domain? " tableColumnId="13"/>
-      <queryTableField id="14" name="Did you skip search results because of the opresence and absence of bolded terms in the titles and snippets of the caption?" tableColumnId="14"/>
-      <queryTableField id="15" name="Were there other reasons you skipped search results?" tableColumnId="15"/>
-      <queryTableField id="16" name="Anything else you want to say?" tableColumnId="16"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{D511ACFF-EB75-428F-B85D-55333443A8AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="7">
-    <queryTableFields count="6">
-      <queryTableField id="1" name="Zeitstempel" tableColumnId="1"/>
-      <queryTableField id="2" name="Participant Number" tableColumnId="2"/>
-      <queryTableField id="3" name="What gender do you identify with?" tableColumnId="3"/>
-      <queryTableField id="4" name="How old are you?" tableColumnId="4"/>
-      <queryTableField id="5" name="What is your highest level of education?" tableColumnId="5"/>
-      <queryTableField id="6" name="What's your current occupation? (e.g.: if you are currently studying at a university insert 'Student')" tableColumnId="6"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EFCF7B6-D579-44B8-A87F-EA930A1720F0}" name="Pre_Study_Questionnaire" displayName="Pre_Study_Questionnaire" ref="A1:G34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:G34" xr:uid="{8EFCF7B6-D579-44B8-A87F-EA930A1720F0}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6133ACA6-2D3F-4058-BA60-62652346A5DD}" uniqueName="1" name="Zeitstempel" queryTableFieldId="1" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{D89E966C-E1B6-4A45-A91C-36108333A516}" uniqueName="2" name="Participant Number" queryTableFieldId="2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{2DCE566D-C842-4953-B1DE-2E8E24226C2B}" uniqueName="3" name="Melatonin as a treatment for Jet Lag." queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{F372E365-DCFC-47B7-8D60-06A42E42F63B}" uniqueName="4" name="Melatonin can help with Jet Lag." queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{D80C98A4-9EA5-4819-8020-2BA0E5AC65BC}" uniqueName="5" name="How often do you search for information online?" queryTableFieldId="5" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{2BF14AE7-E038-4A57-B847-6C9B359B4BA1}" uniqueName="6" name="How would you rate your web search expertise?" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{6DD182B1-DCD7-49F2-9251-27439307E0D1}" uniqueName="7" name="How good are you at evaluating credibility of information online?" queryTableFieldId="7"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1053B199-C340-4F11-ACAB-EB880C57063D}" name="Post_Task_Questionnaire" displayName="Post_Task_Questionnaire" ref="A1:P34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:P34" xr:uid="{1053B199-C340-4F11-ACAB-EB880C57063D}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{D1AA57D4-11C5-46BD-A696-04D301240791}" uniqueName="1" name="Zeitstempel" queryTableFieldId="1" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{FE8FB56A-B35F-429B-8785-DDFA24ABDBDF}" uniqueName="2" name="Participant Number" queryTableFieldId="2" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{2D2A6B36-CFE7-4E64-A112-4C63B530836C}" uniqueName="3" name="How credible was search result 1?" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{5534BC43-AF5A-4DF0-AB1E-DCC0B0B29646}" uniqueName="4" name="Please explain your answer:" queryTableFieldId="4" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{A2400653-1045-458F-B045-566D3317CD96}" uniqueName="5" name="How credible was search result 2?" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{398719A9-32DF-4D09-ACE3-8AECFDABED21}" uniqueName="6" name="Please explain your answer:_1" queryTableFieldId="6" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{6A19E63C-5A15-4D25-B46E-B920AF9ABEBD}" uniqueName="7" name="How credible was search result 3?" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{203B5CE9-B4EC-475E-85C4-4537FC40A5D2}" uniqueName="8" name="Please explain your answer:_2" queryTableFieldId="8" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{7BE19B4E-47AE-4789-A740-623F922E5410}" uniqueName="9" name="If you skipped (not clicked on) search result 1, why?" queryTableFieldId="9" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{196CB735-6F92-48F1-A606-8566223ABD02}" uniqueName="10" name="If you skipped (not clicked on) search result 2, why?" queryTableFieldId="10" dataDxfId="12"/>
-    <tableColumn id="11" xr3:uid="{4C9CAC52-2230-40CF-B4DA-B2555C422031}" uniqueName="11" name="If you skipped (not clicked on) search result 3, why?" queryTableFieldId="11" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{DB82C39C-43DC-4AF0-A19B-48CECE3318B2}" uniqueName="12" name="Did you skip search results because they were placed further down the search result page?" queryTableFieldId="12" dataDxfId="10"/>
-    <tableColumn id="13" xr3:uid="{73A92328-DDB6-4E66-9242-0F3013A7B642}" uniqueName="13" name="Did you skip search results because of their source domain? " queryTableFieldId="13" dataDxfId="9"/>
-    <tableColumn id="14" xr3:uid="{FA5C95CD-5B02-4E4A-A74B-B203ADE9C05C}" uniqueName="14" name="Did you skip search results because of the opresence and absence of bolded terms in the titles and snippets of the caption?" queryTableFieldId="14" dataDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{3CA5925A-71A8-40A0-A0DF-BE37C39A0A4B}" uniqueName="15" name="Were there other reasons you skipped search results?" queryTableFieldId="15" dataDxfId="7"/>
-    <tableColumn id="16" xr3:uid="{95DA5755-22C3-40B1-A113-01F2C008A22E}" uniqueName="16" name="Anything else you want to say?" queryTableFieldId="16" dataDxfId="6"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9433B26B-02A9-44B0-AD28-CBB147DB7B67}" name="Demographics_Questionnaire" displayName="Demographics_Questionnaire" ref="A1:F34" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:F34" xr:uid="{9433B26B-02A9-44B0-AD28-CBB147DB7B67}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{378F7054-C1C4-439B-8295-A8B308540B94}" uniqueName="1" name="Zeitstempel" queryTableFieldId="1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{0431D194-6B36-43FD-BF35-C0641BD0CB21}" uniqueName="2" name="Participant Number" queryTableFieldId="2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F29DDFEC-BBE4-4883-8B2F-FCAE75230A53}" uniqueName="3" name="What gender do you identify with?" queryTableFieldId="3" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DF395DB5-F17C-41DC-9236-FC640C2523C1}" uniqueName="4" name="How old are you?" queryTableFieldId="4" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{987CCC89-1B6D-46F1-9B5A-016683A4D5A5}" uniqueName="5" name="What is your highest level of education?" queryTableFieldId="5" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{6DF09263-7028-4A38-84F5-6A7200928AD9}" uniqueName="6" name="What's your current occupation? (e.g.: if you are currently studying at a university insert 'Student')" queryTableFieldId="6" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1489,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE31E12-57E3-4BA1-A00C-B38046ED4AF7}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2211,9 +2033,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -2221,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D503B1-4046-403C-B8E7-B4A5D2433565}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3784,9 +3603,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -3794,7 +3610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C721550-AF52-49B2-90FE-7DC0AD4CC52C}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -4445,9 +4261,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 

--- a/RawDataQuestionnaires.xlsx
+++ b/RawDataQuestionnaires.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Documents\Uni\WiSe22_23\InformationsverhaltenVerstehen\Abgaben\SkippingBehaviour\Studien_Durchgeführt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jenny\Documents\GitHub\StudyingSkippingSearchResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{954E1489-ADD9-40DE-AE66-87C1001B2BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A61B1CF-AD75-4CD9-A8E6-B8B921F034C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6506A550-EB3F-49D8-AEC5-3371002D41E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{6506A550-EB3F-49D8-AEC5-3371002D41E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-Study Questionnaire" sheetId="2" r:id="rId1"/>
@@ -18,12 +18,11 @@
     <sheet name="Demographics Questionnaire" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Demographics Questionnaire'!$A$1:$F$32</definedName>
+    <definedName name="ExternalData_1" localSheetId="2" hidden="1">'Demographics Questionnaire'!$A$1:$F$26</definedName>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">'Post-Task Questionnaire'!$A$1:$P$32</definedName>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Pre-Study Questionnaire'!$A$1:$G$32</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'Pre-Study Questionnaire'!$A$1:$G$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1311,8 +1310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE31E12-57E3-4BA1-A00C-B38046ED4AF7}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1406,59 +1405,59 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -1467,30 +1466,30 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>3</v>
@@ -1498,13 +1497,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>4</v>
@@ -1516,38 +1515,38 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1556,36 +1555,36 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1825,33 +1824,33 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -1860,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>4</v>
@@ -1871,10 +1870,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1886,24 +1885,24 @@
         <v>20</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>20</v>
@@ -1917,42 +1916,42 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>4</v>
@@ -1963,25 +1962,25 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
@@ -2040,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D503B1-4046-403C-B8E7-B4A5D2433565}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2234,28 +2233,28 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>87</v>
@@ -2270,13 +2269,13 @@
         <v>90</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>87</v>
@@ -2284,31 +2283,34 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>87</v>
@@ -2323,36 +2325,36 @@
         <v>89</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>87</v>
@@ -2361,51 +2363,51 @@
         <v>87</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>90</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>111</v>
+        <v>164</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>87</v>
@@ -2420,7 +2422,7 @@
         <v>90</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>87</v>
@@ -2431,87 +2433,87 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>116</v>
+        <v>169</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="L10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N10" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>121</v>
+        <v>179</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>123</v>
+        <v>180</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>89</v>
@@ -2520,60 +2522,60 @@
         <v>90</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>126</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>129</v>
+        <v>185</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="N12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="P12" s="1" t="s">
         <v>87</v>
@@ -2581,52 +2583,49 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>191</v>
+        <v>102</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>191</v>
+        <v>87</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
@@ -3153,28 +3152,28 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26">
         <v>2</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E26">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
       <c r="H26" s="1" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>87</v>
@@ -3189,13 +3188,13 @@
         <v>90</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>87</v>
@@ -3203,31 +3202,31 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="E27">
         <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>87</v>
@@ -3236,66 +3235,66 @@
         <v>87</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="O27" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>144</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>90</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="P28" s="1" t="s">
         <v>87</v>
@@ -3303,31 +3302,31 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="E29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>87</v>
@@ -3336,54 +3335,54 @@
         <v>87</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="L30" s="1" t="s">
         <v>89</v>
@@ -3392,110 +3391,110 @@
         <v>90</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N31" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="O31" s="1" t="s">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>185</v>
+        <v>87</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>186</v>
+        <v>87</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>87</v>
+        <v>191</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>89</v>
       </c>
       <c r="M32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="N32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="N32" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="O32" s="1" t="s">
-        <v>188</v>
+        <v>87</v>
       </c>
       <c r="P32" s="1" t="s">
         <v>87</v>
@@ -3610,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C721550-AF52-49B2-90FE-7DC0AD4CC52C}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3701,19 +3700,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>245</v>
@@ -3721,56 +3720,56 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>244</v>
@@ -3781,16 +3780,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>244</v>
@@ -3801,62 +3800,62 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -4081,19 +4080,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>245</v>
@@ -4101,16 +4100,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>254</v>
@@ -4121,36 +4120,36 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>244</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>242</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>244</v>
@@ -4161,16 +4160,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>244</v>
@@ -4181,16 +4180,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>244</v>
@@ -4201,19 +4200,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>245</v>
